--- a/backend/Descripcion de la api.xlsx
+++ b/backend/Descripcion de la api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNMSM\proyectos\bibliotech\BiblioTech\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3880B003-EE27-4D3A-B4BA-0BC404BC2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F321B-94C5-45F4-82F1-B82CE41700EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{103A87F9-736A-4285-851D-B8E285ECB308}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2D814-7F03-4DE0-B230-A5A169F9BFC1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backend/Descripcion de la api.xlsx
+++ b/backend/Descripcion de la api.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNMSM\proyectos\bibliotech\BiblioTech\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM\BiblioTech\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F321B-94C5-45F4-82F1-B82CE41700EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76871BF-447A-4ECF-AE36-622F0C1F1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{103A87F9-736A-4285-851D-B8E285ECB308}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>descripcion de la api</t>
   </si>
@@ -99,6 +90,29 @@
   </si>
   <si>
     <t>Borra cookie</t>
+  </si>
+  <si>
+    <t>/libro/cat</t>
+  </si>
+  <si>
+    <t>los libros de esa categoria limitados por la cantidad que se quiere</t>
+  </si>
+  <si>
+    <t>/libro/title</t>
+  </si>
+  <si>
+    <t>{
+    "titulo : "kjj"
+}</t>
+  </si>
+  <si>
+    <t>libros con ese nombre</t>
+  </si>
+  <si>
+    <t>{
+    "categoria":"kjj",
+    "cantirdad": 2
+}</t>
   </si>
 </sst>
 </file>
@@ -459,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2D814-7F03-4DE0-B230-A5A169F9BFC1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +535,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
